--- a/src/samples/iXlsxWriter.ConsoleAppCore/Output/Sample10/Sample-10.xlsx
+++ b/src/samples/iXlsxWriter.ConsoleAppCore/Output/Sample10/Sample-10.xlsx
@@ -181,16 +181,16 @@
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="y4awbwvw" xfId="1"/>
-    <cellStyle name="y4awbwvw_Alternate" xfId="2"/>
-    <cellStyle name="dmnrklgb" xfId="3"/>
-    <cellStyle name="dmnrklgb_Alternate" xfId="4"/>
-    <cellStyle name="3j2aojky" xfId="5"/>
-    <cellStyle name="3j2aojky_Alternate" xfId="6"/>
-    <cellStyle name="rwsgeisa" xfId="7"/>
-    <cellStyle name="rwsgeisa_Alternate" xfId="8"/>
-    <cellStyle name="c2qcaqfn" xfId="9"/>
-    <cellStyle name="c2qcaqfn_Alternate" xfId="10"/>
+    <cellStyle name="r1vvnotm" xfId="1"/>
+    <cellStyle name="r1vvnotm_Alternate" xfId="2"/>
+    <cellStyle name="2e002wx0" xfId="3"/>
+    <cellStyle name="2e002wx0_Alternate" xfId="4"/>
+    <cellStyle name="gkfhtj4r" xfId="5"/>
+    <cellStyle name="gkfhtj4r_Alternate" xfId="6"/>
+    <cellStyle name="o3hxioux" xfId="7"/>
+    <cellStyle name="o3hxioux_Alternate" xfId="8"/>
+    <cellStyle name="zxnbn45s" xfId="9"/>
+    <cellStyle name="zxnbn45s_Alternate" xfId="10"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>

--- a/src/samples/iXlsxWriter.ConsoleAppCore/Output/Sample10/Sample-10.xlsx
+++ b/src/samples/iXlsxWriter.ConsoleAppCore/Output/Sample10/Sample-10.xlsx
@@ -181,16 +181,16 @@
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="r1vvnotm" xfId="1"/>
-    <cellStyle name="r1vvnotm_Alternate" xfId="2"/>
-    <cellStyle name="2e002wx0" xfId="3"/>
-    <cellStyle name="2e002wx0_Alternate" xfId="4"/>
-    <cellStyle name="gkfhtj4r" xfId="5"/>
-    <cellStyle name="gkfhtj4r_Alternate" xfId="6"/>
-    <cellStyle name="o3hxioux" xfId="7"/>
-    <cellStyle name="o3hxioux_Alternate" xfId="8"/>
-    <cellStyle name="zxnbn45s" xfId="9"/>
-    <cellStyle name="zxnbn45s_Alternate" xfId="10"/>
+    <cellStyle name="coka1mn4" xfId="1"/>
+    <cellStyle name="coka1mn4_Alternate" xfId="2"/>
+    <cellStyle name="eu03sbe5" xfId="3"/>
+    <cellStyle name="eu03sbe5_Alternate" xfId="4"/>
+    <cellStyle name="my4ym4ja" xfId="5"/>
+    <cellStyle name="my4ym4ja_Alternate" xfId="6"/>
+    <cellStyle name="isidyju1" xfId="7"/>
+    <cellStyle name="isidyju1_Alternate" xfId="8"/>
+    <cellStyle name="xyygn4lu" xfId="9"/>
+    <cellStyle name="xyygn4lu_Alternate" xfId="10"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
